--- a/buscapecompany.xlsx
+++ b/buscapecompany.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosdoki/Library/Containers/com.microsoft.Excel/Data/Downloads/appdynamics-doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFB17F71-2A30-284B-86EE-FE078A8F2B73}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction Discovery" sheetId="1" r:id="rId1"/>
     <sheet name="Health Rules" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="120">
   <si>
     <t>Aplicacao</t>
   </si>
@@ -80,6 +74,9 @@
     <t>org.springframework.boot.actuate.endpoint.mvc.HealthMvcEndpoint</t>
   </si>
   <si>
+    <t>Business Transaction response time is much higher than normal</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>MAXIMUS-JUBA</t>
+  </si>
+  <si>
+    <t>JVM Garbage Collection Time is too high</t>
   </si>
   <si>
     <t>MBACKSTAGE</t>
@@ -380,8 +380,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,14 +427,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -481,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,27 +505,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,24 +539,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,14 +714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -799,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -819,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -839,18 +795,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -859,9 +815,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -879,9 +835,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -899,117 +855,117 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1027,9 +983,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1047,9 +1003,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1067,9 +1023,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -1087,149 +1043,149 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -1241,9 +1197,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -1261,9 +1217,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -1281,9 +1237,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
@@ -1301,9 +1257,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -1321,23 +1277,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -1355,26 +1311,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -1383,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -1392,29 +1348,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
         <v>58</v>
       </c>
-      <c r="F43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -1432,9 +1388,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -1452,18 +1408,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -1472,9 +1428,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
@@ -1492,9 +1448,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -1512,9 +1468,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -1532,9 +1488,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
@@ -1552,9 +1508,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
@@ -1572,9 +1528,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -1592,18 +1548,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I58" t="s">
         <v>12</v>
@@ -1612,33 +1568,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
         <v>32</v>
       </c>
-      <c r="E59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>31</v>
-      </c>
       <c r="D60" t="s">
         <v>15</v>
       </c>
@@ -1649,29 +1605,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
         <v>65</v>
-      </c>
-      <c r="C61" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>64</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
@@ -1689,49 +1645,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" t="s">
         <v>67</v>
       </c>
-      <c r="C63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" t="s">
-        <v>66</v>
-      </c>
       <c r="F63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" t="s">
-        <v>66</v>
-      </c>
       <c r="F64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
@@ -1749,9 +1705,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
@@ -1769,9 +1725,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -1789,9 +1745,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>17</v>
@@ -1809,18 +1765,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I71" t="s">
         <v>12</v>
@@ -1829,9 +1785,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
@@ -1849,9 +1805,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>17</v>
@@ -1869,18 +1825,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I74" t="s">
         <v>12</v>
@@ -1889,9 +1845,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
@@ -1909,9 +1865,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -1929,9 +1885,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -1949,9 +1905,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
@@ -1969,9 +1925,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
@@ -1989,9 +1945,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
         <v>17</v>
@@ -2009,9 +1965,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
@@ -2029,9 +1985,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
         <v>17</v>
@@ -2049,9 +2005,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
@@ -2069,9 +2025,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
@@ -2089,9 +2045,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
         <v>17</v>
@@ -2109,9 +2065,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s">
         <v>13</v>
@@ -2129,9 +2085,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B93" t="s">
         <v>13</v>
@@ -2149,9 +2105,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
@@ -2169,9 +2125,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
@@ -2189,9 +2145,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
@@ -2209,9 +2165,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
@@ -2229,9 +2185,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B100" t="s">
         <v>17</v>
@@ -2249,9 +2205,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B102" t="s">
         <v>17</v>
@@ -2269,9 +2225,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
         <v>13</v>
@@ -2289,9 +2245,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B105" t="s">
         <v>17</v>
@@ -2309,9 +2265,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
@@ -2329,9 +2285,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -2343,9 +2299,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
@@ -2363,9 +2319,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
         <v>17</v>
@@ -2383,9 +2339,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B111" t="s">
         <v>17</v>
@@ -2403,65 +2359,65 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B113" t="s">
+        <v>88</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
         <v>86</v>
       </c>
-      <c r="C113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>84</v>
-      </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B115" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B116" t="s">
         <v>13</v>
@@ -2479,18 +2435,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I117" t="s">
         <v>12</v>
@@ -2499,9 +2455,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B118" t="s">
         <v>17</v>
@@ -2519,9 +2475,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
@@ -2539,9 +2495,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B121" t="s">
         <v>13</v>
@@ -2559,9 +2515,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B122" t="s">
         <v>17</v>
@@ -2579,9 +2535,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B124" t="s">
         <v>17</v>
@@ -2599,9 +2555,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
@@ -2619,9 +2575,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B127" t="s">
         <v>13</v>
@@ -2639,9 +2595,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B128" t="s">
         <v>17</v>
@@ -2659,9 +2615,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B130" t="s">
         <v>17</v>
@@ -2679,9 +2635,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B131" t="s">
         <v>13</v>
@@ -2699,9 +2655,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
@@ -2719,9 +2675,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B134" t="s">
         <v>13</v>
@@ -2739,9 +2695,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B136" t="s">
         <v>13</v>
@@ -2759,9 +2715,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B137" t="s">
         <v>17</v>
@@ -2779,9 +2735,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B139" t="s">
         <v>13</v>
@@ -2799,9 +2755,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B140" t="s">
         <v>17</v>
@@ -2819,9 +2775,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
@@ -2839,9 +2795,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B143" t="s">
         <v>13</v>
@@ -2859,18 +2815,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
       </c>
       <c r="G144" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I144" t="s">
         <v>12</v>
@@ -2879,9 +2835,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B145" t="s">
         <v>13</v>
@@ -2899,9 +2855,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B146" t="s">
         <v>17</v>
@@ -2919,381 +2875,381 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B148" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D148" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" t="s">
+        <v>59</v>
+      </c>
+      <c r="F148" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>101</v>
+      </c>
+      <c r="B149" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>33</v>
+      </c>
+      <c r="E149" t="s">
+        <v>59</v>
+      </c>
+      <c r="F149" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>101</v>
+      </c>
+      <c r="B150" t="s">
+        <v>104</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" t="s">
+        <v>59</v>
+      </c>
+      <c r="F150" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>101</v>
+      </c>
+      <c r="B151" t="s">
+        <v>105</v>
+      </c>
+      <c r="C151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" t="s">
+        <v>33</v>
+      </c>
+      <c r="E151" t="s">
+        <v>59</v>
+      </c>
+      <c r="F151" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>101</v>
+      </c>
+      <c r="B152" t="s">
+        <v>106</v>
+      </c>
+      <c r="C152" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" t="s">
+        <v>33</v>
+      </c>
+      <c r="E152" t="s">
+        <v>59</v>
+      </c>
+      <c r="F152" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B153" t="s">
+        <v>107</v>
+      </c>
+      <c r="C153" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" t="s">
+        <v>33</v>
+      </c>
+      <c r="E153" t="s">
+        <v>59</v>
+      </c>
+      <c r="F153" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" t="s">
+        <v>108</v>
+      </c>
+      <c r="C154" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" t="s">
+        <v>33</v>
+      </c>
+      <c r="E154" t="s">
+        <v>59</v>
+      </c>
+      <c r="F154" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>33</v>
+      </c>
+      <c r="E155" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>101</v>
+      </c>
+      <c r="B156" t="s">
+        <v>109</v>
+      </c>
+      <c r="C156" t="s">
         <v>32</v>
       </c>
-      <c r="E148" t="s">
-        <v>58</v>
-      </c>
-      <c r="F148" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>99</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="D156" t="s">
+        <v>33</v>
+      </c>
+      <c r="E156" t="s">
+        <v>110</v>
+      </c>
+      <c r="F156" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
         <v>101</v>
       </c>
-      <c r="C149" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" t="s">
-        <v>32</v>
-      </c>
-      <c r="E149" t="s">
-        <v>58</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="B157" t="s">
+        <v>112</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" t="s">
+        <v>59</v>
+      </c>
+      <c r="F157" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>99</v>
-      </c>
-      <c r="B150" t="s">
-        <v>102</v>
-      </c>
-      <c r="C150" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" t="s">
-        <v>32</v>
-      </c>
-      <c r="E150" t="s">
-        <v>58</v>
-      </c>
-      <c r="F150" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>99</v>
-      </c>
-      <c r="B151" t="s">
-        <v>103</v>
-      </c>
-      <c r="C151" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" t="s">
-        <v>32</v>
-      </c>
-      <c r="E151" t="s">
-        <v>58</v>
-      </c>
-      <c r="F151" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>99</v>
-      </c>
-      <c r="B152" t="s">
-        <v>104</v>
-      </c>
-      <c r="C152" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" t="s">
-        <v>32</v>
-      </c>
-      <c r="E152" t="s">
-        <v>58</v>
-      </c>
-      <c r="F152" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>99</v>
-      </c>
-      <c r="B153" t="s">
-        <v>105</v>
-      </c>
-      <c r="C153" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" t="s">
-        <v>32</v>
-      </c>
-      <c r="E153" t="s">
-        <v>58</v>
-      </c>
-      <c r="F153" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>99</v>
-      </c>
-      <c r="B154" t="s">
-        <v>106</v>
-      </c>
-      <c r="C154" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" t="s">
-        <v>32</v>
-      </c>
-      <c r="E154" t="s">
-        <v>58</v>
-      </c>
-      <c r="F154" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>99</v>
-      </c>
-      <c r="B155" t="s">
-        <v>33</v>
-      </c>
-      <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" t="s">
-        <v>32</v>
-      </c>
-      <c r="E155" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>99</v>
-      </c>
-      <c r="B156" t="s">
-        <v>107</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="B158" t="s">
+        <v>113</v>
+      </c>
+      <c r="C158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" t="s">
+        <v>59</v>
+      </c>
+      <c r="F158" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>101</v>
+      </c>
+      <c r="B159" t="s">
+        <v>114</v>
+      </c>
+      <c r="C159" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" t="s">
+        <v>33</v>
+      </c>
+      <c r="E159" t="s">
+        <v>59</v>
+      </c>
+      <c r="F159" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" t="s">
+        <v>115</v>
+      </c>
+      <c r="C160" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" t="s">
+        <v>59</v>
+      </c>
+      <c r="F160" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>101</v>
+      </c>
+      <c r="B161" t="s">
         <v>31</v>
       </c>
-      <c r="D156" t="s">
-        <v>32</v>
-      </c>
-      <c r="E156" t="s">
-        <v>108</v>
-      </c>
-      <c r="F156" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>99</v>
-      </c>
-      <c r="B157" t="s">
-        <v>110</v>
-      </c>
-      <c r="C157" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157" t="s">
-        <v>32</v>
-      </c>
-      <c r="E157" t="s">
-        <v>58</v>
-      </c>
-      <c r="F157" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>99</v>
-      </c>
-      <c r="B158" t="s">
-        <v>111</v>
-      </c>
-      <c r="C158" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" t="s">
-        <v>32</v>
-      </c>
-      <c r="E158" t="s">
-        <v>58</v>
-      </c>
-      <c r="F158" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>99</v>
-      </c>
-      <c r="B159" t="s">
-        <v>112</v>
-      </c>
-      <c r="C159" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" t="s">
-        <v>32</v>
-      </c>
-      <c r="E159" t="s">
-        <v>58</v>
-      </c>
-      <c r="F159" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>99</v>
-      </c>
-      <c r="B160" t="s">
-        <v>113</v>
-      </c>
-      <c r="C160" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" t="s">
-        <v>32</v>
-      </c>
-      <c r="E160" t="s">
-        <v>58</v>
-      </c>
-      <c r="F160" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>99</v>
-      </c>
-      <c r="B161" t="s">
-        <v>30</v>
-      </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B162" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F162" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B163" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F163" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B164" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F164" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B165" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F165" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3302,24 +3258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3339,754 +3285,754 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
